--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C07EFEE-75CE-4A3E-8843-F7C912A79313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A71168-97C0-46C9-B979-69257F4B11C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A71168-97C0-46C9-B979-69257F4B11C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3427BF92-73EF-4691-91CB-800F89FEF9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3427BF92-73EF-4691-91CB-800F89FEF9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418E4522-04FE-4DC7-A10E-A8DC740D9B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418E4522-04FE-4DC7-A10E-A8DC740D9B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1545EF8-9C11-48C4-8AAA-9B4ADF2C37FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1545EF8-9C11-48C4-8AAA-9B4ADF2C37FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFEDA77-1D92-471A-8C11-E3202EFAC489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFEDA77-1D92-471A-8C11-E3202EFAC489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA18965-3477-4A00-8AE0-5F2EBDD71E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6984" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="90">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -291,6 +291,24 @@
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>Trd_electricity_exp</t>
+  </si>
+  <si>
+    <t>cap_bnd</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>Trd_electricity_imp</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +414,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +559,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +579,14 @@
     <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2460,6 +2499,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791F67D5-1AB0-0665-559B-36F37BCC681C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2780,7 +2869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
@@ -2795,26 +2884,39 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
         <v>Current Policies</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2822,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2833,7 +2935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2844,7 +2946,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2859,7 +2961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2867,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2903,7 +3005,7 @@
         <v>359.90571658183768</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2911,12 +3013,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G15" s="7">
         <v>2020</v>
       </c>
@@ -2972,7 +3074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>6.3399999999999998E-2</v>
@@ -3377,7 +3479,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>40.033700000000003</v>
@@ -3406,8 +3508,74 @@
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
         <v>50.828999999999994</v>
       </c>
+      <c r="Q34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="S35" s="20">
+        <v>2030</v>
+      </c>
+      <c r="T35" s="20">
+        <v>2040</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R36" s="22">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="S36" s="22">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="T36" s="22">
+        <v>3.93</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="R37" s="24">
+        <v>10.647</v>
+      </c>
+      <c r="S37" s="24">
+        <v>11.752000000000001</v>
+      </c>
+      <c r="T37" s="24">
+        <v>13.252000000000001</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA18965-3477-4A00-8AE0-5F2EBDD71E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A805C13-563A-4AC5-A5E1-944F68538796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791F67D5-1AB0-0665-559B-36F37BCC681C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE0D354-CF58-43AA-1697-6BBB3D93BD9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A805C13-563A-4AC5-A5E1-944F68538796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{928A96E6-42CE-4A69-9B96-923F822FB210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="88">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -295,16 +295,10 @@
     <t>~tfm_ins-ts</t>
   </si>
   <si>
-    <t>Trd_electricity_exp</t>
-  </si>
-  <si>
     <t>cap_bnd</t>
   </si>
   <si>
-    <t>fx</t>
-  </si>
-  <si>
-    <t>Trd_electricity_imp</t>
+    <t>lo</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -2517,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE0D354-CF58-43AA-1697-6BBB3D93BD9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BC97BE-774A-755D-F2B8-E954356190FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,13 +2878,13 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3534,7 +3528,7 @@
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
       <c r="Q36" s="21" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="R36" s="22">
         <v>1.5049999999999999</v>
@@ -3546,15 +3540,15 @@
         <v>3.93</v>
       </c>
       <c r="U36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V36" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
       <c r="Q37" s="23" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="R37" s="24">
         <v>10.647</v>
@@ -3566,10 +3560,10 @@
         <v>13.252000000000001</v>
       </c>
       <c r="U37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="V37" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="V37" s="23" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{928A96E6-42CE-4A69-9B96-923F822FB210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDDDFB4-DE75-4172-9A03-6973ED647BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BC97BE-774A-755D-F2B8-E954356190FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDD2559-ED6A-C3B6-51EC-8AEE20381CE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDDDFB4-DE75-4172-9A03-6973ED647BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01102C74-0EF7-41FD-8013-1917BD22FD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
-    <sheet name="historical_data_long" sheetId="4" r:id="rId2"/>
-    <sheet name="iamc_data" sheetId="2" r:id="rId3"/>
+    <sheet name="buildrates" sheetId="5" r:id="rId2"/>
+    <sheet name="historical_data_long" sheetId="4" r:id="rId3"/>
+    <sheet name="iamc_data" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">iamc_data!$A$1:$J$17119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">iamc_data!$A$1:$J$17119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6998" uniqueCount="88">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -553,7 +554,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,11 +577,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2865,7 +2861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -3507,62 +3503,62 @@
       </c>
     </row>
     <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="14">
         <v>2024</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="14">
         <v>2030</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T35" s="14">
         <v>2040</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="V35" s="20" t="s">
+      <c r="V35" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q36" s="21" t="s">
+      <c r="Q36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R36" s="16">
         <v>1.5049999999999999</v>
       </c>
-      <c r="S36" s="22">
+      <c r="S36" s="16">
         <v>2.5049999999999999</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="16">
         <v>3.93</v>
       </c>
-      <c r="U36" s="21" t="s">
+      <c r="U36" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="21" t="s">
+      <c r="V36" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q37" s="23" t="s">
+      <c r="Q37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R37" s="24">
+      <c r="R37" s="18">
         <v>10.647</v>
       </c>
-      <c r="S37" s="24">
+      <c r="S37" s="18">
         <v>11.752000000000001</v>
       </c>
-      <c r="T37" s="24">
+      <c r="T37" s="18">
         <v>13.252000000000001</v>
       </c>
-      <c r="U37" s="23" t="s">
+      <c r="U37" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="V37" s="23" t="s">
+      <c r="V37" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3577,11 +3573,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB723AF2-1389-44D6-AEA2-E12563063AA8}">
+  <dimension ref="A3:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A4,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>18.91</v>
+      </c>
+      <c r="C4" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A4,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A5,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>19.29</v>
+      </c>
+      <c r="C5" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A5,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A6,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>19.690000000000001</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A6,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A7,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>20.11</v>
+      </c>
+      <c r="C7" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A7,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A8,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>20.87</v>
+      </c>
+      <c r="C8" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A8,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A9,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>21.66</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A9,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A10,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>22.6</v>
+      </c>
+      <c r="C10" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A10,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A11,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>24.56</v>
+      </c>
+      <c r="C11" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A11,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!B$3,historical_data_long!$B$3:$B$698,buildrates!$A12,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>29.8</v>
+      </c>
+      <c r="C12" s="8">
+        <f>SUMIFS(historical_data_long!$D$3:$D$698,historical_data_long!$A$3:$A$698,buildrates!C$3,historical_data_long!$B$3:$B$698,buildrates!$A12,historical_data_long!$C$3:$C$698,buildrates!$A$3)</f>
+        <v>12.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED720965-5BE4-4F06-A681-1FF793F66716}">
   <dimension ref="A1:D698"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D698"/>
+    <sheetView topLeftCell="A654" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13304,7 +13448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L638"/>
   <sheetViews>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50ED3163-3FBC-4BA8-8EAC-8EF0B10FB1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A728F5A-838B-4C47-A096-964DD9F59FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54CDB43-1868-E4D0-015C-96D160477E75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FA382A-24DB-33EE-A8D8-24FF4A91B1E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A728F5A-838B-4C47-A096-964DD9F59FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B90071-EA24-4908-97CC-E714606A1414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FA382A-24DB-33EE-A8D8-24FF4A91B1E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5D201E-4F58-6C02-9E8B-E559A82CA286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B90071-EA24-4908-97CC-E714606A1414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899EE67C-53C7-4C31-BE4D-60E596951304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7011" uniqueCount="98">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -303,6 +303,36 @@
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
+  <si>
+    <t>~tfm_topins</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>e_w95466193-220</t>
+  </si>
+  <si>
+    <t>e_w108050523-220</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>e_w222427976-220</t>
+  </si>
+  <si>
+    <t>e_w436352445-220</t>
+  </si>
+  <si>
+    <t>e_w309371152-220</t>
+  </si>
+  <si>
+    <t>e_IT80-220</t>
+  </si>
 </sst>
 </file>
 
@@ -553,7 +583,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,11 +606,9 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2865,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -3507,62 +3535,62 @@
       </c>
     </row>
     <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="14">
         <v>2024</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="14">
         <v>2030</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T35" s="14">
         <v>2040</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="V35" s="20" t="s">
+      <c r="V35" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q36" s="21" t="s">
+      <c r="Q36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R36" s="16">
         <v>1.5049999999999999</v>
       </c>
-      <c r="S36" s="22">
+      <c r="S36" s="16">
         <v>2.5049999999999999</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="16">
         <v>3.93</v>
       </c>
-      <c r="U36" s="21" t="s">
+      <c r="U36" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="21" t="s">
+      <c r="V36" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
-      <c r="Q37" s="23" t="s">
+      <c r="Q37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R37" s="24">
+      <c r="R37" s="18">
         <v>10.647</v>
       </c>
-      <c r="S37" s="24">
+      <c r="S37" s="18">
         <v>11.752000000000001</v>
       </c>
-      <c r="T37" s="24">
+      <c r="T37" s="18">
         <v>13.252000000000001</v>
       </c>
-      <c r="U37" s="23" t="s">
+      <c r="U37" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="V37" s="23" t="s">
+      <c r="V37" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3578,18 +3606,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED720965-5BE4-4F06-A681-1FF793F66716}">
-  <dimension ref="A1:D698"/>
+  <dimension ref="A1:N698"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D698"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
@@ -3603,7 +3631,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -3617,7 +3645,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -3631,7 +3659,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
@@ -3645,7 +3673,7 @@
         <v>101.36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>56</v>
       </c>
@@ -3659,7 +3687,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
@@ -3673,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -3687,7 +3715,7 @@
         <v>91.43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
@@ -3700,8 +3728,13 @@
       <c r="D9" s="16">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="L9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>58</v>
       </c>
@@ -3714,8 +3747,17 @@
       <c r="D10" s="18">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="L10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3770,17 @@
       <c r="D11" s="16">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="L11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
@@ -3742,8 +3793,17 @@
       <c r="D12" s="18">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="L12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
@@ -3756,8 +3816,17 @@
       <c r="D13" s="16">
         <v>31.73</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="L13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
@@ -3770,8 +3839,17 @@
       <c r="D14" s="18">
         <v>104.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="L14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
@@ -3785,7 +3863,7 @@
         <v>46.81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>57</v>
       </c>
